--- a/Supplementary_materials/Supplementary Table 5.xlsx
+++ b/Supplementary_materials/Supplementary Table 5.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonguo/myDocuments/git_local_repo/COVIDnetwork/Supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E043B2F-F9F2-C946-BB9D-4F0F29B4EEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3E90A1-9E05-6446-8B79-5CFEB90CED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E1DA91B9-B178-6149-A7DE-0EA2E7B72D21}"/>
+    <workbookView xWindow="1920" yWindow="40" windowWidth="33600" windowHeight="21000" xr2:uid="{E1DA91B9-B178-6149-A7DE-0EA2E7B72D21}"/>
   </bookViews>
   <sheets>
-    <sheet name="Uniprot Node Hypotheses" sheetId="1" r:id="rId1"/>
+    <sheet name="Uniprot Node (exclude PPI node)" sheetId="1" r:id="rId1"/>
     <sheet name="Disease Node Hypotheses" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Uniprot Node Hypotheses'!$A$1:$D$3422</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Uniprot Node (exclude PPI node)'!$A$1:$D$3422</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31278,8 +31278,8 @@
   <dimension ref="A1:D3429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G275" sqref="G275"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3426" sqref="F3426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
